--- a/template_env.xlsx
+++ b/template_env.xlsx
@@ -107,19 +107,24 @@
     </r>
   </si>
   <si>
-    <t>기술사 - 계산식</t>
+    <t>기술사 - 계산식
+(투입인원*환산계수*보정계수)</t>
   </si>
   <si>
-    <t>특급기술자 - 계산식</t>
+    <t>특급기술자 - 계산식
+(투입인원*환산계수*보정계수)</t>
   </si>
   <si>
-    <t>고급기술자 - 계산식</t>
+    <t>고급기술자 - 계산식
+(투입인원*환산계수*보정계수)</t>
   </si>
   <si>
-    <t>중급기술자 - 계산식</t>
+    <t>중급기술자 - 계산식
+(투입인원*환산계수*보정계수)</t>
   </si>
   <si>
-    <t>초급기술자 - 계산식</t>
+    <t>초급기술자 - 계산식
+(투입인원*환산계수*보정계수)</t>
   </si>
   <si>
     <r>
@@ -517,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
@@ -659,11 +664,14 @@
     <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" readingOrder="0" vertical="center"/>
-    </xf>
     <xf borderId="11" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf borderId="29" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
+    </xf>
+    <xf borderId="30" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="29" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
@@ -4993,7 +5001,7 @@
       <c r="C44" s="40"/>
       <c r="D44" s="40"/>
       <c r="E44" s="40"/>
-      <c r="F44" s="47"/>
+      <c r="F44" s="40"/>
       <c r="G44" s="40"/>
       <c r="H44" s="41"/>
     </row>
@@ -5038,7 +5046,7 @@
       <c r="H48" s="41"/>
     </row>
     <row r="49" ht="15.75" customHeight="1">
-      <c r="A49" s="48"/>
+      <c r="A49" s="47"/>
       <c r="B49" s="44"/>
       <c r="C49" s="44"/>
       <c r="D49" s="44"/>
@@ -6069,19 +6077,19 @@
       <c r="G2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="36" t="s">
+      <c r="I2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="36" t="s">
+      <c r="J2" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="36" t="s">
+      <c r="K2" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="49" t="s">
         <v>31</v>
       </c>
     </row>
@@ -6716,7 +6724,7 @@
       <c r="L47" s="41"/>
     </row>
     <row r="48" ht="15.75" customHeight="1">
-      <c r="A48" s="48"/>
+      <c r="A48" s="47"/>
       <c r="B48" s="43"/>
       <c r="C48" s="44"/>
       <c r="D48" s="44"/>
@@ -8866,37 +8874,37 @@
       <c r="A2" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="49" t="s">
+      <c r="C2" s="50" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="49" t="s">
+      <c r="D2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="E2" s="49" t="s">
+      <c r="E2" s="50" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="49" t="s">
+      <c r="F2" s="50" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="49" t="s">
+      <c r="G2" s="50" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="49" t="s">
+      <c r="H2" s="50" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="49" t="s">
+      <c r="I2" s="50" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="50" t="s">
         <v>51</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="50" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="50" t="s">
+      <c r="L2" s="51" t="s">
         <v>53</v>
       </c>
     </row>
@@ -8912,7 +8920,7 @@
       <c r="I3" s="40"/>
       <c r="J3" s="40"/>
       <c r="K3" s="40"/>
-      <c r="L3" s="51"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" ht="21.75" customHeight="1">
       <c r="A4" s="38"/>
@@ -8926,7 +8934,7 @@
       <c r="I4" s="40"/>
       <c r="J4" s="40"/>
       <c r="K4" s="40"/>
-      <c r="L4" s="51"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" ht="21.75" customHeight="1">
       <c r="A5" s="38"/>
@@ -8940,7 +8948,7 @@
       <c r="I5" s="40"/>
       <c r="J5" s="40"/>
       <c r="K5" s="40"/>
-      <c r="L5" s="51"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" ht="21.75" customHeight="1">
       <c r="A6" s="38"/>
@@ -8954,7 +8962,7 @@
       <c r="I6" s="40"/>
       <c r="J6" s="40"/>
       <c r="K6" s="40"/>
-      <c r="L6" s="51"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" ht="21.75" customHeight="1">
       <c r="A7" s="38"/>
@@ -8968,7 +8976,7 @@
       <c r="I7" s="40"/>
       <c r="J7" s="40"/>
       <c r="K7" s="40"/>
-      <c r="L7" s="51"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" ht="21.75" customHeight="1">
       <c r="A8" s="38"/>
@@ -8982,7 +8990,7 @@
       <c r="I8" s="40"/>
       <c r="J8" s="40"/>
       <c r="K8" s="40"/>
-      <c r="L8" s="51"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" ht="21.75" customHeight="1">
       <c r="A9" s="38"/>
@@ -8996,7 +9004,7 @@
       <c r="I9" s="40"/>
       <c r="J9" s="40"/>
       <c r="K9" s="40"/>
-      <c r="L9" s="51"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" ht="21.75" customHeight="1">
       <c r="A10" s="38"/>
@@ -9010,7 +9018,7 @@
       <c r="I10" s="40"/>
       <c r="J10" s="40"/>
       <c r="K10" s="40"/>
-      <c r="L10" s="51"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" ht="21.75" customHeight="1">
       <c r="A11" s="38"/>
@@ -9024,7 +9032,7 @@
       <c r="I11" s="40"/>
       <c r="J11" s="40"/>
       <c r="K11" s="40"/>
-      <c r="L11" s="51"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" ht="21.75" customHeight="1">
       <c r="A12" s="38"/>
@@ -9038,7 +9046,7 @@
       <c r="I12" s="40"/>
       <c r="J12" s="40"/>
       <c r="K12" s="40"/>
-      <c r="L12" s="51"/>
+      <c r="L12" s="52"/>
     </row>
     <row r="13" ht="21.75" customHeight="1">
       <c r="A13" s="38"/>
@@ -9052,7 +9060,7 @@
       <c r="I13" s="40"/>
       <c r="J13" s="40"/>
       <c r="K13" s="40"/>
-      <c r="L13" s="51"/>
+      <c r="L13" s="52"/>
     </row>
     <row r="14" ht="21.75" customHeight="1">
       <c r="A14" s="38"/>
@@ -9066,7 +9074,7 @@
       <c r="I14" s="40"/>
       <c r="J14" s="40"/>
       <c r="K14" s="40"/>
-      <c r="L14" s="51"/>
+      <c r="L14" s="52"/>
     </row>
     <row r="15" ht="21.75" customHeight="1">
       <c r="A15" s="38"/>
@@ -9080,7 +9088,7 @@
       <c r="I15" s="40"/>
       <c r="J15" s="40"/>
       <c r="K15" s="40"/>
-      <c r="L15" s="51"/>
+      <c r="L15" s="52"/>
     </row>
     <row r="16" ht="21.75" customHeight="1">
       <c r="A16" s="38"/>
@@ -9094,7 +9102,7 @@
       <c r="I16" s="40"/>
       <c r="J16" s="40"/>
       <c r="K16" s="40"/>
-      <c r="L16" s="51"/>
+      <c r="L16" s="52"/>
     </row>
     <row r="17" ht="21.75" customHeight="1">
       <c r="A17" s="38"/>
@@ -9108,7 +9116,7 @@
       <c r="I17" s="40"/>
       <c r="J17" s="40"/>
       <c r="K17" s="40"/>
-      <c r="L17" s="51"/>
+      <c r="L17" s="52"/>
     </row>
     <row r="18" ht="21.75" customHeight="1">
       <c r="A18" s="38"/>
@@ -9122,7 +9130,7 @@
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
-      <c r="L18" s="51"/>
+      <c r="L18" s="52"/>
     </row>
     <row r="19" ht="21.75" customHeight="1">
       <c r="A19" s="38"/>
@@ -9136,7 +9144,7 @@
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
       <c r="K19" s="40"/>
-      <c r="L19" s="51"/>
+      <c r="L19" s="52"/>
     </row>
     <row r="20" ht="21.75" customHeight="1">
       <c r="A20" s="38"/>
@@ -9150,7 +9158,7 @@
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
       <c r="K20" s="40"/>
-      <c r="L20" s="51"/>
+      <c r="L20" s="52"/>
     </row>
     <row r="21" ht="21.75" customHeight="1">
       <c r="A21" s="38"/>
@@ -9164,7 +9172,7 @@
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
       <c r="K21" s="40"/>
-      <c r="L21" s="51"/>
+      <c r="L21" s="52"/>
     </row>
     <row r="22" ht="21.75" customHeight="1">
       <c r="A22" s="38"/>
@@ -9178,7 +9186,7 @@
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
       <c r="K22" s="40"/>
-      <c r="L22" s="51"/>
+      <c r="L22" s="52"/>
     </row>
     <row r="23" ht="21.75" customHeight="1">
       <c r="A23" s="38"/>
@@ -9192,7 +9200,7 @@
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
       <c r="K23" s="40"/>
-      <c r="L23" s="51"/>
+      <c r="L23" s="52"/>
     </row>
     <row r="24" ht="21.75" customHeight="1">
       <c r="A24" s="42"/>
@@ -9206,7 +9214,7 @@
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
       <c r="K24" s="44"/>
-      <c r="L24" s="52"/>
+      <c r="L24" s="53"/>
     </row>
     <row r="25" ht="15.75" customHeight="1"/>
     <row r="26" ht="15.75" customHeight="1"/>
